--- a/backtest.xlsx
+++ b/backtest.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="3" r:id="rId1"/>
+    <sheet name="Plan1" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -63,10 +63,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
@@ -370,31 +369,551 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+    </row>
   </sheetData>
-  <sortState ref="A1:F77">
-    <sortCondition ref="A1:A77"/>
-  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/backtest.xlsx
+++ b/backtest.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="5" r:id="rId1"/>
+    <sheet name="Plan1" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -372,7 +372,7 @@
   <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/backtest.xlsx
+++ b/backtest.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>ATIVO</t>
+    <t>STOCK</t>
   </si>
   <si>
-    <t>FATOR_LUCRO</t>
+    <t>PROFIT_FACTOR</t>
   </si>
 </sst>
 </file>
@@ -372,10 +372,13 @@
   <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H130" sqref="H130"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
